--- a/code/数据库设计/总数据库/数据字典.xlsx
+++ b/code/数据库设计/总数据库/数据字典.xlsx
@@ -3,18 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA33B9-0218-4695-B13D-D7FE8263390D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E64B70-F99D-42DA-8D9C-2AFD41DE2C03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
     <sheet name="Person" sheetId="2" r:id="rId2"/>
     <sheet name="Faction" sheetId="3" r:id="rId3"/>
-    <sheet name="Army" sheetId="4" r:id="rId4"/>
-    <sheet name="Battle" sheetId="5" r:id="rId5"/>
-    <sheet name="Time" sheetId="6" r:id="rId6"/>
-    <sheet name="Player" sheetId="7" r:id="rId7"/>
+    <sheet name="Time" sheetId="6" r:id="rId4"/>
+    <sheet name="Player" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,14 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>忠诚改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在城池改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>城池农业（每年秋季收获）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,93 +238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Army表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次部队的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主将的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将的ID</t>
-  </si>
-  <si>
-    <t>副将的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场所在城池ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御方军队ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主将修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将1修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将2修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮草修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称生成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役结果生成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Time表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -431,58 +334,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>armyID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyMainID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyAssisiant1ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyAssisiant2ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armySoldier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>citySoldier</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>armyFood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyMoney</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleDefendArmyID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>year</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1为春，2为夏，3为秋，4为冬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerMaxScore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -491,10 +350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>状态改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cityChangeBelongFactionID(int number)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -503,46 +358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>势力主公武将更换</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyChangeSoldier(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyChangeFood(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyChangeMoney(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>season</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerChangeMaxScore(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personChangeState(string state)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻方军队ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleAttackArmyID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleFieldCityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金钱减少（100-政治*智力），商业成功提升（政治+智力）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -599,42 +414,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金钱减少当前忠诚*10，忠诚上升1点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonChangeCityID(city c)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personChangeLoyal();</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>改变为c的cityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactionChangeLeaderPersonID(person p)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyChangeMainID(persong p)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyChangeAssisiant1ID(persong pa1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyChangeAssisiant2ID(persong pa2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>timeSeasonChange()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -643,21 +422,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防御方势力名+城池名+之战</t>
-  </si>
-  <si>
-    <t>BattleNameGeneration()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleResultGeneration()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（ 主将（统帅*10+武力*8+智力*6）+副将1（统帅*8+武力*6+智力*4）+副将1（统帅*6+武力*4+智力*2） ）*兵力，比较，返回大的一方的军队ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cityConnCityID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -671,6 +435,14 @@
   </si>
   <si>
     <t>武将状态，0为忙碌，1为空闲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~12月，12月之后年份+1，月份归1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -739,17 +511,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -757,11 +518,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1048,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1063,22 +823,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1120,7 +880,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1138,7 +898,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1154,7 +914,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1163,12 +923,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1177,12 +937,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1191,12 +951,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1205,12 +965,12 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1226,7 +986,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1242,7 +1002,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1259,102 +1019,105 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>159</v>
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1375,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1391,22 +1154,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1448,7 +1211,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1466,7 +1229,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1482,7 +1245,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1498,7 +1261,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1514,7 +1277,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1530,7 +1293,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1546,7 +1309,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1562,7 +1325,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -1580,10 +1343,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -1591,40 +1354,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1639,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1653,22 +1383,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1710,7 +1440,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1728,7 +1458,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1741,18 +1471,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1765,39 +1484,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1821,7 +1539,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1830,16 +1548,12 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1848,155 +1562,31 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" t="s">
-        <v>147</v>
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2009,287 +1599,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -2305,22 +1616,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2344,7 +1655,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2354,18 +1665,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
